--- a/Main/test/results/positionscatTDOA.xlsx
+++ b/Main/test/results/positionscatTDOA.xlsx
@@ -634,47 +634,49 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-267.5358935001766</t>
+          <t>-267.54</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-48.14212752516504</t>
+          <t>-48.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-29.728056870676316</t>
+          <t>-29.73</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>29.164695241896414</t>
+          <t>29.16</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-91.75820100739102</t>
+          <t>-91.76</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>38.37039094636967</t>
+          <t>38.37</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-84.79983040050878</t>
+          <t>-84.8</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>-96.88840316216294</t>
+          <t>-96.89</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -684,147 +686,147 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-25.42191386212696</t>
+          <t>-25.42</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>3.263379357292363</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>-0.20460843432095552</t>
+          <t>-0.2</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>-59.69451071313877</t>
+          <t>-59.69</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>24.96154488490481</t>
+          <t>24.96</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-62.39521687604851</t>
+          <t>-62.4</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-24.501860009934422</t>
+          <t>-24.5</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>100.32409331501646</t>
+          <t>100.32</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>10.404288095866498</t>
+          <t>10.4</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-25.537078607745112</t>
+          <t>-25.54</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>3.5419086011394567</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>-29.195677573110483</t>
+          <t>-29.2</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>6.077965394595865</t>
+          <t>6.08</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>-28.14846810829939</t>
+          <t>-28.15</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>10.350591461747175</t>
+          <t>10.35</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>59.9625351196689</t>
+          <t>59.96</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>-37.46375353481287</t>
+          <t>-37.46</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>-9.009210019130128</t>
+          <t>-9.01</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>12.9188588499288</t>
+          <t>12.92</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>-20.529422587494576</t>
+          <t>-20.53</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>-19.530969951198685</t>
+          <t>-19.53</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>-40.42242964201764</t>
+          <t>-40.42</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>-27.742308379028398</t>
+          <t>-27.74</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>16.596311750187578</t>
+          <t>16.6</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>3.694346128613258</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>-89.11863092009492</t>
+          <t>-89.12</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>-30.112458103463023</t>
+          <t>-30.11</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>48.18528628258502</t>
+          <t>48.19</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>24.399555792773945</t>
+          <t>24.4</t>
         </is>
       </c>
     </row>
@@ -832,187 +834,189 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>2</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>8.736644941693577</t>
+          <t>8.74</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-14.228279536466665</t>
+          <t>-14.23</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>46.0793680452377</t>
+          <t>46.08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.5195144369626467</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-1.7816420147508332</t>
+          <t>-1.78</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>7.167604712423954</t>
+          <t>7.17</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-7.713602770088794</t>
+          <t>-7.71</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>-8.804472186991601</t>
+          <t>-8.8</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>-0.15345632574071663</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-1.8919439152170732</t>
+          <t>-1.89</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2.5984019457492558</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>-0.05115210858023888</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>-0.20460843432095552</t>
+          <t>-0.2</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1.3292707208344456</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-62.34406476746827</t>
+          <t>-62.34</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>-0.05115210858023888</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>1.3447632122542361</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.12271427123848463</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>14.924239279223839</t>
+          <t>14.92</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.26817365200416826</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>-1.266626288300059</t>
+          <t>-1.27</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>19.479817842618452</t>
+          <t>19.48</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>-2.879326469661387</t>
+          <t>-2.88</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>1.8081893288472852</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>3.7463677899863814</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>-1.0946043342630236</t>
+          <t>-1.09</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>27.564547615740665</t>
+          <t>27.56</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>2.586132916720546</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>-1.0404692184235638</t>
+          <t>-1.04</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>-1.4231235137941218</t>
+          <t>-1.42</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>-3.644063572825894</t>
+          <t>-3.64</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>-2.3197104146496725</t>
+          <t>-2.32</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1.6087439361775897</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>-0.1420620149046579</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>-2.3135026594295347</t>
+          <t>-2.31</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>-1.7230378414304508</t>
+          <t>-1.72</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
@@ -1022,7 +1026,7 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>-0.10230421716047776</t>
+          <t>-0.1</t>
         </is>
       </c>
     </row>
@@ -1030,47 +1034,49 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>3</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>84.69752618334832</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-1.3379481742464678</t>
+          <t>-1.34</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-260.2706102418129</t>
+          <t>-260.27</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.5706665455428845</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-2.037402557652029</t>
+          <t>-2.04</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>8.804472186991601</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-7.611298552928321</t>
+          <t>-7.61</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>-52.999894000317994</t>
+          <t>-53.0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1080,137 +1086,137 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-1.8407918066368372</t>
+          <t>-1.84</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2.7007061629097358</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>-0.20460843432095552</t>
+          <t>-0.2</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>-0.8184337372838221</t>
+          <t>-0.82</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>25.473065970707196</t>
+          <t>25.47</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-3.8260525516749904</t>
+          <t>-3.83</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>-0.10230421716047776</t>
+          <t>-0.1</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>1.3447632122542361</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.2761705969792005</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0.4481925510162378</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.4216299777448841</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>-1.1131699625593432</t>
+          <t>-1.11</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>1.1162108623126938</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>-2.879326469661387</t>
+          <t>-2.88</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>1.8593414374275248</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>3.6440635728259023</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>-1.0434522256827836</t>
+          <t>-1.04</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>27.513395507160425</t>
+          <t>27.51</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>16.346050124804805</t>
+          <t>16.35</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>-1.0916213270038038</t>
+          <t>-1.09</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>-1.4231235137941218</t>
+          <t>-1.42</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>-3.6952156814061303</t>
+          <t>-3.7</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>-2.2685583060694325</t>
+          <t>-2.27</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.6087439361775897</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>0.1648506365767753</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>-50.65224526775527</t>
+          <t>-50.65</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>-1.671885732850211</t>
+          <t>-1.67</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
@@ -1220,7 +1226,7 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>-0.20460843432095552</t>
+          <t>-0.2</t>
         </is>
       </c>
     </row>
@@ -1228,47 +1234,49 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>4</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>8.63434072453309</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-1.082187631345274</t>
+          <t>-1.08</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.6512278606149002</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.5706665455428845</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-2.1397067748125087</t>
+          <t>-2.14</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>8.906776404152073</t>
+          <t>8.91</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-84.79983040050878</t>
+          <t>-84.8</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>-8.651015861250883</t>
+          <t>-8.65</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1278,17 +1286,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-1.8919439152170732</t>
+          <t>-1.89</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>62.34406476746827</t>
+          <t>62.34</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>-0.10230421716047776</t>
+          <t>-0.1</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1298,117 +1306,117 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1.2269665036739696</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-3.8260525516749904</t>
+          <t>-3.83</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-0.20460843432095552</t>
+          <t>-0.2</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>1.2424589950937563</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>9.688158575743156</t>
+          <t>9.69</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>0.5504967681767157</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>0.4727820863251241</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>-1.215474179719821</t>
+          <t>-1.22</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>1.1162108623126938</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>-2.879326469661387</t>
+          <t>-2.88</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>1.8081893288472852</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>3.541759355665422</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>-10.506592313026976</t>
+          <t>-10.51</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>27.46224339858019</t>
+          <t>27.46</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>16.397202233385045</t>
+          <t>16.4</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>-0.9893171098433238</t>
+          <t>-0.99</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>-1.4742756223743576</t>
+          <t>-1.47</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>-60.06483933682938</t>
+          <t>-60.06</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>-2.3197104146496725</t>
+          <t>-2.32</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.6087439361775897</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>-0.44897466638609107</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>-50.601093159175036</t>
+          <t>-50.6</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>-26.122593634204392</t>
+          <t>-26.12</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
@@ -1418,7 +1426,7 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>-0.05115210858023888</t>
+          <t>-0.05</t>
         </is>
       </c>
     </row>
@@ -1426,197 +1434,199 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>5</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>8.787797050273813</t>
+          <t>8.79</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-15.200169599491204</t>
+          <t>-15.2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.1397067748125087</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.5706665455428845</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-2.2420109919729887</t>
+          <t>-2.24</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>8.906776404152073</t>
+          <t>8.91</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>-7.918211204409753</t>
+          <t>-7.92</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-52.999894000317994</t>
+          <t>-53.0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>-0.25576054290119443</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>-1.8919439152170732</t>
+          <t>-1.89</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2.5984019457492558</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>-0.10230421716047776</t>
+          <t>-0.1</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>-0.10230421716047776</t>
+          <t>-0.1</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1.0223580693530139</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-3.7749004430947544</t>
+          <t>-3.77</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>-0.6138253029628665</t>
+          <t>-0.61</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>1.2936111036739923</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>10.506592313026976</t>
+          <t>10.51</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>0.5504967681767157</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>13.874634534347708</t>
+          <t>13.87</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>-1.1131699625593432</t>
+          <t>-1.11</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>19.428665734038212</t>
+          <t>19.43</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>-2.828174361081143</t>
+          <t>-2.83</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>1.8081893288472852</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>3.33715092134447</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>-1.1457564428432616</t>
+          <t>-1.15</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>27.564547615740665</t>
+          <t>27.56</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>16.294898016224565</t>
+          <t>16.29</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>-1.0404692184235638</t>
+          <t>-1.04</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>-1.3719714052138818</t>
+          <t>-1.37</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>-59.9625351196689</t>
+          <t>-59.96</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>-28.714198442052936</t>
+          <t>-28.71</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1.7622002619183053</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>3.745498237193497</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>-2.4158068765900143</t>
+          <t>-2.42</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>-1.671885732850211</t>
+          <t>-1.67</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>0.05115210858023888</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>-0.05115210858023888</t>
+          <t>-0.05</t>
         </is>
       </c>
     </row>
@@ -1624,47 +1634,49 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>6</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>84.79983040050878</t>
+          <t>84.8</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-1.133339739925512</t>
+          <t>-1.13</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.0885546662322727</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.5706665455428845</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-1.883946231911313</t>
+          <t>-1.88</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>8.957928512732316</t>
+          <t>8.96</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>-7.713602770088794</t>
+          <t>-7.71</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>-8.446407426929925</t>
+          <t>-8.45</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1674,147 +1686,147 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>-25.524218079287436</t>
+          <t>-25.52</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2.6495540543294993</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>-0.30691265148143326</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>-0.15345632574071663</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1.0223580693530139</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-3.8772046602552344</t>
+          <t>-3.88</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-0.05115210858023888</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>1.2936111036739923</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>0.22501848839896252</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>0.5504967681767157</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>0.4727820863251241</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>-1.215474179719821</t>
+          <t>-1.22</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>19.479817842618452</t>
+          <t>19.48</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>-2.828174361081143</t>
+          <t>-2.83</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>1.8593414374275248</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>59.9625351196689</t>
+          <t>59.96</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>-10.506592313026976</t>
+          <t>-10.51</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>27.513395507160425</t>
+          <t>27.51</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>16.294898016224565</t>
+          <t>16.29</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-1.0404692184235638</t>
+          <t>-1.04</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>-1.4742756223743576</t>
+          <t>-1.47</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>-3.746367789986374</t>
+          <t>-3.75</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>-2.3197104146496725</t>
+          <t>-2.32</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1.7622002619183053</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>-0.5001267749663301</t>
+          <t>-0.5</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>-2.4158068765900143</t>
+          <t>-2.42</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>-1.7230378414304508</t>
+          <t>-1.72</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>0.05115210858023888</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>-0.10230421716047776</t>
+          <t>-0.1</t>
         </is>
       </c>
     </row>
@@ -1822,187 +1834,189 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>7</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>84.74867829192854</t>
+          <t>84.75</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-1.2867960656662298</t>
+          <t>-1.29</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.0885546662322727</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>15.25132170807144</t>
+          <t>15.25</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-47.000105999682</t>
+          <t>-47.0</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>52.999894000317994</t>
+          <t>53.0</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>-8.071667530150462</t>
+          <t>-8.07</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>-52.999894000317994</t>
+          <t>-53.0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>-0.05115210858023888</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>-1.8919439152170732</t>
+          <t>-1.89</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2.6495540543294993</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>-0.25576054290119443</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>-0.05115210858023888</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>25.473065970707196</t>
+          <t>25.47</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-3.8260525516749904</t>
+          <t>-3.83</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>-0.10230421716047776</t>
+          <t>-0.1</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>1.2936111036739923</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>0.1738663798187226</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>0.6528009853371936</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>0.4216299777448841</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>-1.164322071139583</t>
+          <t>-1.16</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>1.1162108623126938</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>-2.828174361081143</t>
+          <t>-2.83</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>1.8081893288472852</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>3.7463677899863814</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>-10.506592313026976</t>
+          <t>-10.51</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>27.46224339858019</t>
+          <t>27.46</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>16.294898016224565</t>
+          <t>16.29</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>-1.0916213270038038</t>
+          <t>-1.09</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>-1.4742756223743576</t>
+          <t>-1.47</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>-3.6952156814061303</t>
+          <t>-3.7</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>-2.3197104146496725</t>
+          <t>-2.32</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1.7622002619183053</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>-0.1420620149046579</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>-50.601093159175036</t>
+          <t>-50.6</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>-1.876494167171167</t>
+          <t>-1.88</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
@@ -2012,7 +2026,7 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>-0.05115210858023888</t>
+          <t>-0.05</t>
         </is>
       </c>
     </row>
@@ -2020,187 +2034,189 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>8</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>8.63434072453309</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-1.184491848505752</t>
+          <t>-1.18</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.1397067748125087</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.6729707627033624</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-1.935098340491549</t>
+          <t>-1.94</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>53.05104610889823</t>
+          <t>53.05</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>-8.020515421570225</t>
+          <t>-8.02</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>-8.548711644090405</t>
+          <t>-8.55</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>-0.05115210858023888</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-1.9430960237973132</t>
+          <t>-1.94</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2.5984019457492558</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>-0.05115210858023888</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>-0.25576054290119443</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.971205960772774</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-3.9283567688354704</t>
+          <t>-3.93</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>-0.05115210858023888</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>1.2936111036739923</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>0.22501848839896252</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>0.4993446595964777</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>13.823482425767471</t>
+          <t>13.82</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>-1.215474179719821</t>
+          <t>-1.22</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>1.2185150794731738</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>-2.879326469661387</t>
+          <t>-2.88</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>1.8593414374275248</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>3.695215681406138</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>-10.506592313026976</t>
+          <t>-10.51</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>27.46224339858019</t>
+          <t>27.46</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>16.346050124804805</t>
+          <t>16.35</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>-1.0916213270038038</t>
+          <t>-1.09</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>-19.530969951198685</t>
+          <t>-19.53</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>-3.644063572825894</t>
+          <t>-3.64</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>-28.714198442052936</t>
+          <t>-28.71</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1.7622002619183053</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>-0.1420620149046579</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>-2.3646547680097783</t>
+          <t>-2.36</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>-26.173745742784632</t>
+          <t>-26.17</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
@@ -2218,187 +2234,189 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>9</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>7.867059095829516</t>
+          <t>7.87</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-0.9798834141847962</t>
+          <t>-0.98</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.037402557652029</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>15.149017490910966</t>
+          <t>15.15</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-2.037402557652029</t>
+          <t>-2.04</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>52.999894000317994</t>
+          <t>53.0</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>-84.90213461766926</t>
+          <t>-84.9</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>-8.497559535510169</t>
+          <t>-8.5</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.05115210858023888</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>-1.8919439152170732</t>
+          <t>-1.89</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2.5472498371690198</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>-0.05115210858023888</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>-0.05115210858023888</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0.9200538521925379</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-3.8260525516749904</t>
+          <t>-3.83</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>-0.05115210858023888</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>1.2424589950937563</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>0.22501848839896252</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>0.6528009853371936</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>0.4727820863251241</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>-1.215474179719821</t>
+          <t>-1.22</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>1.2185150794731738</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>-2.828174361081143</t>
+          <t>-2.83</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>1.8593414374275248</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>3.695215681406138</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>-0.9923001171025458</t>
+          <t>-0.99</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>27.513395507160425</t>
+          <t>27.51</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>16.346050124804805</t>
+          <t>16.35</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>-0.9893171098433238</t>
+          <t>-0.99</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>-1.5254277309545976</t>
+          <t>-1.53</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>-59.91138301108866</t>
+          <t>-59.91</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>-2.2685583060694325</t>
+          <t>-2.27</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>41.25162808586273</t>
+          <t>41.25</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>3.7966503457737355</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>-2.2623505508492987</t>
+          <t>-2.26</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>-26.173745742784632</t>
+          <t>-26.17</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
@@ -2408,7 +2426,7 @@
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>-0.05115210858023888</t>
+          <t>-0.05</t>
         </is>
       </c>
     </row>
@@ -2416,197 +2434,199 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>10</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>84.79983040050878</t>
+          <t>84.8</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-1.2867960656662298</t>
+          <t>-1.29</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.037402557652029</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>15.097865382330728</t>
+          <t>15.1</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-1.935098340491549</t>
+          <t>-1.94</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>52.89758978315751</t>
+          <t>52.9</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>-84.79983040050878</t>
+          <t>-84.8</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>-52.999894000317994</t>
+          <t>-53.0</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>-0.05115210858023888</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>-25.473065970707196</t>
+          <t>-25.47</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2.5984019457492558</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>-0.05115210858023888</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>-0.10230421716047776</t>
+          <t>-0.1</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.8177496350320581</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-3.8772046602552344</t>
+          <t>-3.88</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>-0.05115210858023888</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>1.1913068865135203</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>0.22501848839896252</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>0.5504967681767157</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>13.772330317187235</t>
+          <t>13.77</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>-1.215474179719821</t>
+          <t>-1.22</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>1.1162108623126938</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>-2.879326469661387</t>
+          <t>-2.88</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>1.8593414374275248</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>3.7463677899863814</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>-1.1457564428432616</t>
+          <t>-1.15</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>27.46224339858019</t>
+          <t>27.46</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>16.294898016224565</t>
+          <t>16.29</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>-1.0916213270038038</t>
+          <t>-1.09</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>-1.4742756223743576</t>
+          <t>-1.47</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>-59.9625351196689</t>
+          <t>-59.96</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>-2.3197104146496725</t>
+          <t>-2.32</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1.6598960447578255</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>3.8989545629342133</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>-2.4158068765900143</t>
+          <t>-2.42</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>-1.8253420585909268</t>
+          <t>-1.83</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>0.30691265148143326</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>-0.05115210858023888</t>
+          <t>-0.05</t>
         </is>
       </c>
     </row>
@@ -2626,157 +2646,157 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="AA12" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
         <is>
           <t>Fail</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>Pass</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
